--- a/Data/Variation_csv.xlsx
+++ b/Data/Variation_csv.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaadelsheim/Documents/Thesis/otteR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D8857-9647-1349-931B-88228DC6E7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161AE5FA-0D8C-7A41-ADF4-D95E0746A5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="20320" windowHeight="15840" xr2:uid="{BBDAB1C0-849B-9C4B-8551-D97582946570}"/>
+    <workbookView xWindow="8720" yWindow="500" windowWidth="20320" windowHeight="15840" xr2:uid="{BBDAB1C0-849B-9C4B-8551-D97582946570}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="38">
   <si>
     <t>Age</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>adult</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>j</t>
@@ -558,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10797D0-695A-3446-90AF-F5CD3DB7D62D}">
   <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD104"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
@@ -603,7 +600,7 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
@@ -667,7 +664,7 @@
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -700,7 +697,7 @@
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -766,7 +763,7 @@
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
@@ -832,7 +829,7 @@
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
@@ -864,7 +861,7 @@
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -897,7 +894,7 @@
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -971,8 +968,8 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
+      <c r="D13" s="2">
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -984,7 +981,7 @@
         <v>0.41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="2">
         <f>(21)/200</f>
@@ -1004,8 +1001,8 @@
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
+      <c r="D14" s="2">
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -1017,7 +1014,7 @@
         <v>1.03</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2">
         <f>(70-21)/200</f>
@@ -1037,8 +1034,8 @@
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
+      <c r="D15" s="2">
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -1050,7 +1047,7 @@
         <v>1.26</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2">
         <f>(100-70)/200</f>
@@ -1070,8 +1067,8 @@
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
+      <c r="D16" s="2">
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -1083,7 +1080,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2">
         <f>(130-100)/200</f>
@@ -1103,8 +1100,8 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
+      <c r="D17" s="2">
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -1116,7 +1113,7 @@
         <v>0.79</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="2">
         <f>(160-130)/200</f>
@@ -1136,8 +1133,8 @@
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
+      <c r="D18" s="2">
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -1149,7 +1146,7 @@
         <v>1.59</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2">
         <f>(200-160)/200</f>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>22</v>
@@ -1169,8 +1166,8 @@
       <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
+      <c r="D19" s="3">
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -1182,18 +1179,18 @@
         <v>0.9</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>22</v>
@@ -1201,8 +1198,8 @@
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
+      <c r="D20" s="3">
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
@@ -1214,18 +1211,18 @@
         <v>1.7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>22</v>
@@ -1233,8 +1230,8 @@
       <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
+      <c r="D21" s="3">
+        <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -1246,19 +1243,19 @@
         <v>1.6</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="3">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
@@ -1266,8 +1263,8 @@
       <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
+      <c r="D22" s="3">
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -1279,19 +1276,19 @@
         <v>2.6</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ref="I22:I23" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
@@ -1299,8 +1296,8 @@
       <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
+      <c r="D23" s="3">
+        <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
@@ -1312,14 +1309,14 @@
         <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1332,8 +1329,8 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>26</v>
+      <c r="D24" s="5">
+        <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
@@ -1364,8 +1361,8 @@
       <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>26</v>
+      <c r="D25" s="5">
+        <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>15</v>
@@ -1396,8 +1393,8 @@
       <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>26</v>
+      <c r="D26" s="5">
+        <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -1428,8 +1425,8 @@
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>26</v>
+      <c r="D27" s="4">
+        <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -1461,8 +1458,8 @@
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>26</v>
+      <c r="D28" s="4">
+        <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -1494,8 +1491,8 @@
       <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>26</v>
+      <c r="D29" s="4">
+        <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>14</v>
@@ -1527,8 +1524,8 @@
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
+      <c r="D30" s="4">
+        <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -1560,8 +1557,8 @@
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>26</v>
+      <c r="D31" s="4">
+        <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
@@ -1593,8 +1590,8 @@
       <c r="C32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>26</v>
+      <c r="D32" s="4">
+        <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -1626,8 +1623,8 @@
       <c r="C33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>26</v>
+      <c r="D33" s="4">
+        <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -1659,8 +1656,8 @@
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
+      <c r="D34" s="4">
+        <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
@@ -1692,8 +1689,8 @@
       <c r="C35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>26</v>
+      <c r="D35" s="4">
+        <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -1717,7 +1714,7 @@
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>22</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>22</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>22</v>
@@ -1816,7 +1813,7 @@
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>22</v>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>22</v>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>22</v>
@@ -1915,7 +1912,7 @@
     </row>
     <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>22</v>
@@ -1948,7 +1945,7 @@
     </row>
     <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>22</v>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>22</v>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>22</v>
@@ -2047,7 +2044,7 @@
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>22</v>
@@ -2080,7 +2077,7 @@
     </row>
     <row r="47" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>22</v>
@@ -2113,7 +2110,7 @@
     </row>
     <row r="48" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>22</v>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>22</v>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="50" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>22</v>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="51" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>22</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="52" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>22</v>
@@ -2278,7 +2275,7 @@
     </row>
     <row r="53" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>22</v>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="54" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>22</v>
@@ -2343,7 +2340,7 @@
     </row>
     <row r="55" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>22</v>
@@ -2376,7 +2373,7 @@
     </row>
     <row r="56" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>22</v>
@@ -2409,7 +2406,7 @@
     </row>
     <row r="57" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>22</v>
@@ -2442,7 +2439,7 @@
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>22</v>
@@ -2475,7 +2472,7 @@
     </row>
     <row r="59" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>22</v>
@@ -2508,7 +2505,7 @@
     </row>
     <row r="60" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>22</v>
@@ -2541,7 +2538,7 @@
     </row>
     <row r="61" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>22</v>
@@ -2574,7 +2571,7 @@
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>22</v>
@@ -2607,7 +2604,7 @@
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>22</v>
@@ -2639,7 +2636,7 @@
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>22</v>
@@ -2672,7 +2669,7 @@
     </row>
     <row r="65" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>22</v>
@@ -2705,7 +2702,7 @@
     </row>
     <row r="66" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>22</v>
@@ -2738,7 +2735,7 @@
     </row>
     <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>22</v>
@@ -2771,7 +2768,7 @@
     </row>
     <row r="68" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>22</v>
@@ -2804,7 +2801,7 @@
     </row>
     <row r="69" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>22</v>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>22</v>
@@ -2870,7 +2867,7 @@
     </row>
     <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>22</v>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="72" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>22</v>
@@ -2936,7 +2933,7 @@
     </row>
     <row r="73" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>22</v>
@@ -2968,7 +2965,7 @@
     </row>
     <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>22</v>
@@ -2976,8 +2973,8 @@
       <c r="C74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>26</v>
+      <c r="D74" s="3">
+        <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>13</v>
@@ -2997,12 +2994,12 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>22</v>
@@ -3010,8 +3007,8 @@
       <c r="C75" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>26</v>
+      <c r="D75" s="3">
+        <v>3</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>14</v>
@@ -3031,12 +3028,12 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>22</v>
@@ -3044,8 +3041,8 @@
       <c r="C76" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>26</v>
+      <c r="D76" s="3">
+        <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>15</v>
@@ -3066,12 +3063,12 @@
         <v>0.34131514657980455</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>22</v>
@@ -3079,8 +3076,8 @@
       <c r="C77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>26</v>
+      <c r="D77" s="3">
+        <v>3</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>15</v>
@@ -3101,12 +3098,12 @@
         <v>0.36540798045602602</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>22</v>
@@ -3114,8 +3111,8 @@
       <c r="C78" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>26</v>
+      <c r="D78" s="3">
+        <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>15</v>
@@ -3136,7 +3133,7 @@
         <v>0.29312947882736157</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3149,8 +3146,8 @@
       <c r="C79" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>26</v>
+      <c r="D79" s="5">
+        <v>2</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>11</v>
@@ -3162,13 +3159,13 @@
         <v>1.7</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I79" s="5">
         <v>0.5</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3181,8 +3178,8 @@
       <c r="C80" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>26</v>
+      <c r="D80" s="5">
+        <v>2</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>11</v>
@@ -3194,13 +3191,13 @@
         <v>1.6</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I80" s="5">
         <v>0.5</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3213,8 +3210,8 @@
       <c r="C81" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>26</v>
+      <c r="D81" s="5">
+        <v>2</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>7</v>
@@ -3226,13 +3223,13 @@
         <v>1.81</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3245,8 +3242,8 @@
       <c r="C82" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>26</v>
+      <c r="D82" s="5">
+        <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -3258,14 +3255,14 @@
         <v>1.7</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I82" s="5">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3278,8 +3275,8 @@
       <c r="C83" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>26</v>
+      <c r="D83" s="5">
+        <v>2</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
@@ -3291,14 +3288,14 @@
         <v>1.6</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" ref="I83:I84" si="8">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3311,8 +3308,8 @@
       <c r="C84" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>26</v>
+      <c r="D84" s="5">
+        <v>2</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
@@ -3324,14 +3321,14 @@
         <v>0</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3363,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3395,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3427,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3459,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3491,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3523,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3555,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3587,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3619,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3651,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3683,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3715,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3747,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3779,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3811,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3843,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3875,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3907,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3939,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3971,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4003,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4035,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4067,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4099,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4131,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4163,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4195,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4227,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4259,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4291,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4323,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4355,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4387,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4419,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4451,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4483,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4515,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4547,12 +4544,12 @@
         <v>1</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>22</v>
@@ -4579,12 +4576,12 @@
         <v>1</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>22</v>
@@ -4611,18 +4608,18 @@
         <v>1</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D125" s="8">
         <v>2</v>
@@ -4643,12 +4640,12 @@
         <v>1</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>22</v>
@@ -4675,12 +4672,12 @@
         <v>1</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>22</v>
@@ -4707,12 +4704,12 @@
         <v>1</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>22</v>
@@ -4739,12 +4736,12 @@
         <v>1</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>22</v>
@@ -4771,12 +4768,12 @@
         <v>1</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>22</v>
@@ -4803,12 +4800,12 @@
         <v>1</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>22</v>
@@ -4835,12 +4832,12 @@
         <v>1</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>22</v>
@@ -4867,12 +4864,12 @@
         <v>1</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>22</v>
@@ -4899,12 +4896,12 @@
         <v>1</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>22</v>
@@ -4931,12 +4928,12 @@
         <v>1</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>22</v>
@@ -4963,12 +4960,12 @@
         <v>1</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>22</v>
@@ -4995,12 +4992,12 @@
         <v>1</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>22</v>
@@ -5027,12 +5024,12 @@
         <v>1</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>22</v>
@@ -5059,12 +5056,12 @@
         <v>1</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>22</v>
@@ -5091,12 +5088,12 @@
         <v>1</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>22</v>
@@ -5123,12 +5120,12 @@
         <v>1</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>22</v>
@@ -5155,12 +5152,12 @@
         <v>1</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>22</v>
@@ -5187,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5204,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F143" s="11">
         <v>107.92</v>
@@ -5213,13 +5210,13 @@
         <v>29.466000000000001</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I143" s="5">
         <v>1</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5236,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F144" s="11">
         <v>75.58</v>
@@ -5245,13 +5242,13 @@
         <v>15.87</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I144" s="5">
         <v>1</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5268,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F145" s="11">
         <v>38.32</v>
@@ -5277,13 +5274,13 @@
         <v>7.6219999999999999</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I145" s="5">
         <v>1</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5300,7 +5297,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F146" s="11">
         <v>20.2</v>
@@ -5309,13 +5306,13 @@
         <v>3.7709999999999999</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I146" s="5">
         <v>1</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5332,7 +5329,7 @@
         <v>4</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F147" s="11">
         <v>11.12</v>
@@ -5341,13 +5338,13 @@
         <v>1.9259999999999999</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I147" s="5">
         <v>1</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5364,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F148" s="11">
         <v>6.41</v>
@@ -5373,13 +5370,13 @@
         <v>1.018</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I148" s="5">
         <v>1</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5396,7 +5393,7 @@
         <v>6</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F149" s="11">
         <v>3.88</v>
@@ -5405,13 +5402,13 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I149" s="5">
         <v>1</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5428,7 +5425,7 @@
         <v>7</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F150" s="11">
         <v>2.4700000000000002</v>
@@ -5437,13 +5434,13 @@
         <v>0.317</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I150" s="5">
         <v>1</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5460,7 +5457,7 @@
         <v>8</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F151" s="11">
         <v>1.65</v>
@@ -5469,13 +5466,13 @@
         <v>0.188</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5492,7 +5489,7 @@
         <v>9</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F152" s="11">
         <v>1.1599999999999999</v>
@@ -5501,13 +5498,13 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5524,7 +5521,7 @@
         <v>10</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F153" s="11">
         <v>0.85</v>
@@ -5533,13 +5530,13 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5556,7 +5553,7 @@
         <v>11</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" s="11">
         <v>0.64</v>
@@ -5565,13 +5562,13 @@
         <v>0.05</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5588,7 +5585,7 @@
         <v>12</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F155" s="11">
         <v>0.5</v>
@@ -5597,13 +5594,13 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5620,7 +5617,7 @@
         <v>13</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F156" s="11">
         <v>0.4</v>
@@ -5629,13 +5626,13 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5652,7 +5649,7 @@
         <v>14</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F157" s="11">
         <v>0.33</v>
@@ -5661,13 +5658,13 @@
         <v>1.9E-2</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5684,7 +5681,7 @@
         <v>15</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F158" s="11">
         <v>0.27</v>
@@ -5693,13 +5690,13 @@
         <v>1.47E-2</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5716,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F159" s="11">
         <v>0.23</v>
@@ -5725,13 +5722,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5748,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F160" s="11">
         <v>0.2</v>
@@ -5757,13 +5754,13 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5780,7 +5777,7 @@
         <v>18</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F161" s="11">
         <v>0.17</v>
@@ -5789,13 +5786,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5812,7 +5809,7 @@
         <v>19</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F162" s="11">
         <v>0.144571373</v>
@@ -5821,13 +5818,13 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5844,7 +5841,7 @@
         <v>2</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F163" s="10">
         <v>38.32</v>
@@ -5853,13 +5850,13 @@
         <v>7.6219999999999999</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I163" s="9">
         <v>1</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5876,7 +5873,7 @@
         <v>3</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F164" s="10">
         <v>20.2</v>
@@ -5885,13 +5882,13 @@
         <v>3.7709999999999999</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I164" s="9">
         <v>1</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5908,7 +5905,7 @@
         <v>4</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F165" s="10">
         <v>11.12</v>
@@ -5917,13 +5914,13 @@
         <v>1.9259999999999999</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I165" s="9">
         <v>1</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5940,7 +5937,7 @@
         <v>5</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F166" s="10">
         <v>6.41</v>
@@ -5949,13 +5946,13 @@
         <v>1.018</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I166" s="9">
         <v>1</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5972,7 +5969,7 @@
         <v>6</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F167" s="10">
         <v>3.88</v>
@@ -5981,13 +5978,13 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I167" s="9">
         <v>1</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6004,7 +6001,7 @@
         <v>7</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F168" s="10">
         <v>2.4700000000000002</v>
@@ -6013,13 +6010,13 @@
         <v>0.317</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I168" s="9">
         <v>1</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6036,7 +6033,7 @@
         <v>8</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F169" s="10">
         <v>1.65</v>
@@ -6045,13 +6042,13 @@
         <v>0.188</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I169" s="9">
         <v>1</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6068,7 +6065,7 @@
         <v>9</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F170" s="10">
         <v>1.1599999999999999</v>
@@ -6077,13 +6074,13 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I170" s="9">
         <v>1</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6100,7 +6097,7 @@
         <v>10</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F171" s="10">
         <v>0.85</v>
@@ -6109,13 +6106,13 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I171" s="9">
         <v>1</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6132,7 +6129,7 @@
         <v>11</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F172" s="10">
         <v>0.64</v>
@@ -6141,13 +6138,13 @@
         <v>0.05</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I172" s="9">
         <v>1</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6164,7 +6161,7 @@
         <v>12</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F173" s="10">
         <v>0.5</v>
@@ -6173,13 +6170,13 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I173" s="9">
         <v>1</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6196,7 +6193,7 @@
         <v>13</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F174" s="10">
         <v>0.4</v>
@@ -6205,13 +6202,13 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I174" s="9">
         <v>1</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6228,7 +6225,7 @@
         <v>14</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F175" s="10">
         <v>0.33</v>
@@ -6237,13 +6234,13 @@
         <v>1.9E-2</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I175" s="9">
         <v>1</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6260,7 +6257,7 @@
         <v>15</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F176" s="10">
         <v>0.27</v>
@@ -6269,13 +6266,13 @@
         <v>1.47E-2</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I176" s="9">
         <v>1</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6292,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F177" s="10">
         <v>0.23</v>
@@ -6301,13 +6298,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I177" s="9">
         <v>1</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6324,7 +6321,7 @@
         <v>17</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F178" s="10">
         <v>0.2</v>
@@ -6333,13 +6330,13 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I178" s="9">
         <v>1</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6356,7 +6353,7 @@
         <v>18</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F179" s="10">
         <v>0.17</v>
@@ -6365,13 +6362,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I179" s="9">
         <v>1</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6388,7 +6385,7 @@
         <v>19</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F180" s="10">
         <v>0.144571373</v>
@@ -6397,18 +6394,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I180" s="9">
         <v>1</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>22</v>
@@ -6420,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F181" s="8">
         <v>124.88</v>
@@ -6429,18 +6426,18 @@
         <v>22.31</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I181" s="7">
         <v>1</v>
       </c>
       <c r="J181" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>22</v>
@@ -6452,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F182" s="8">
         <v>102.46</v>
@@ -6461,30 +6458,30 @@
         <v>15.2</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I182" s="7">
         <v>1</v>
       </c>
       <c r="J182" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D183" s="8">
         <v>2</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F183" s="8">
         <v>63.98</v>
@@ -6493,18 +6490,18 @@
         <v>9.1950000000000003</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I183" s="7">
         <v>1</v>
       </c>
       <c r="J183" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>22</v>
@@ -6516,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F184" s="8">
         <v>38.93</v>
@@ -6525,18 +6522,18 @@
         <v>5.6059999999999999</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I184" s="7">
         <v>1</v>
       </c>
       <c r="J184" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>22</v>
@@ -6548,7 +6545,7 @@
         <v>4</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F185" s="8">
         <v>24.25</v>
@@ -6557,18 +6554,18 @@
         <v>3.44</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I185" s="7">
         <v>1</v>
       </c>
       <c r="J185" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>22</v>
@@ -6580,7 +6577,7 @@
         <v>5</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F186" s="8">
         <v>15.21</v>
@@ -6589,18 +6586,18 @@
         <v>2.13</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I186" s="7">
         <v>1</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>22</v>
@@ -6612,7 +6609,7 @@
         <v>6</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F187" s="8">
         <v>9.59</v>
@@ -6621,18 +6618,18 @@
         <v>1.33</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I187" s="7">
         <v>1</v>
       </c>
       <c r="J187" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>22</v>
@@ -6644,7 +6641,7 @@
         <v>7</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F188" s="8">
         <v>6.09</v>
@@ -6653,18 +6650,18 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I188" s="7">
         <v>1</v>
       </c>
       <c r="J188" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>22</v>
@@ -6676,7 +6673,7 @@
         <v>8</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F189" s="8">
         <v>3.89</v>
@@ -6685,18 +6682,18 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I189" s="7">
         <v>1</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>22</v>
@@ -6708,7 +6705,7 @@
         <v>9</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F190" s="8">
         <v>2.4900000000000002</v>
@@ -6717,18 +6714,18 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I190" s="7">
         <v>1</v>
       </c>
       <c r="J190" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>22</v>
@@ -6740,7 +6737,7 @@
         <v>10</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F191" s="8">
         <v>1.61</v>
@@ -6749,18 +6746,18 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I191" s="7">
         <v>1</v>
       </c>
       <c r="J191" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>22</v>
@@ -6772,7 +6769,7 @@
         <v>11</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F192" s="8">
         <v>1.04</v>
@@ -6781,18 +6778,18 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I192" s="7">
         <v>1</v>
       </c>
       <c r="J192" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>22</v>
@@ -6804,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F193" s="8">
         <v>0.68</v>
@@ -6813,18 +6810,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I193" s="7">
         <v>1</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>22</v>
@@ -6836,7 +6833,7 @@
         <v>13</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F194" s="8">
         <v>0.44</v>
@@ -6845,18 +6842,18 @@
         <v>0.56599999999999995</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I194" s="7">
         <v>1</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>22</v>
@@ -6868,7 +6865,7 @@
         <v>14</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F195" s="8">
         <v>0.28999999999999998</v>
@@ -6877,18 +6874,18 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I195" s="7">
         <v>1</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>22</v>
@@ -6900,7 +6897,7 @@
         <v>15</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F196" s="8">
         <v>0.19</v>
@@ -6909,18 +6906,18 @@
         <v>2.4E-2</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I196" s="7">
         <v>1</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>22</v>
@@ -6932,7 +6929,7 @@
         <v>16</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F197" s="8">
         <v>0.13</v>
@@ -6941,18 +6938,18 @@
         <v>1.6E-2</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I197" s="7">
         <v>1</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>22</v>
@@ -6964,7 +6961,7 @@
         <v>17</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F198" s="8">
         <v>0.09</v>
@@ -6973,18 +6970,18 @@
         <v>1.04E-2</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I198" s="7">
         <v>1</v>
       </c>
       <c r="J198" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>22</v>
@@ -6996,7 +6993,7 @@
         <v>18</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F199" s="8">
         <v>0.06</v>
@@ -7005,18 +7002,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I199" s="7">
         <v>1</v>
       </c>
       <c r="J199" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>22</v>
@@ -7028,7 +7025,7 @@
         <v>19</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F200" s="8">
         <v>0.04</v>
@@ -7037,18 +7034,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I200" s="7">
         <v>1</v>
       </c>
       <c r="J200" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>22</v>
@@ -7081,7 +7078,7 @@
     </row>
     <row r="202" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>22</v>
@@ -7114,7 +7111,7 @@
     </row>
     <row r="203" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>22</v>
@@ -7138,7 +7135,7 @@
         <v>10</v>
       </c>
       <c r="I203" s="2">
-        <f t="shared" ref="I203:I205" si="9">45/180</f>
+        <f t="shared" ref="I203" si="9">45/180</f>
         <v>0.25</v>
       </c>
       <c r="J203" s="2" t="s">
@@ -7147,7 +7144,7 @@
     </row>
     <row r="204" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>22</v>
@@ -7180,7 +7177,7 @@
     </row>
     <row r="205" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>22</v>
@@ -7213,7 +7210,7 @@
     </row>
     <row r="206" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>22</v>
@@ -7246,7 +7243,7 @@
     </row>
     <row r="207" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>22</v>
@@ -7279,7 +7276,7 @@
     </row>
     <row r="208" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>22</v>
@@ -7311,7 +7308,7 @@
     </row>
     <row r="209" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>22</v>
@@ -7344,7 +7341,7 @@
     </row>
     <row r="210" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>22</v>
@@ -7377,7 +7374,7 @@
     </row>
     <row r="211" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>22</v>
@@ -7410,7 +7407,7 @@
     </row>
     <row r="212" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>22</v>
@@ -7443,7 +7440,7 @@
     </row>
     <row r="213" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>22</v>
@@ -7475,7 +7472,7 @@
     </row>
     <row r="214" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>22</v>
@@ -7508,7 +7505,7 @@
     </row>
     <row r="215" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>22</v>
@@ -7541,7 +7538,7 @@
     </row>
     <row r="216" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>22</v>
@@ -7574,7 +7571,7 @@
     </row>
     <row r="217" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>22</v>
@@ -7607,7 +7604,7 @@
     </row>
     <row r="218" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>22</v>
@@ -7640,7 +7637,7 @@
     </row>
     <row r="219" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>22</v>
@@ -7672,7 +7669,7 @@
     </row>
     <row r="220" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>22</v>
@@ -7705,7 +7702,7 @@
     </row>
     <row r="221" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>22</v>
@@ -7738,7 +7735,7 @@
     </row>
     <row r="222" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>22</v>
